--- a/data/trans_bre/P1423-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,18; 5,92</t>
+          <t>0,18; 5,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 5,63</t>
+          <t>-0,94; 5,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 5,71</t>
+          <t>-0,29; 5,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,96</t>
+          <t>0,33; 5,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 417,55</t>
+          <t>-1,07; 412,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 321,76</t>
+          <t>-30,65; 315,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-17,39; 359,7</t>
+          <t>-16,86; 439,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 168,75</t>
+          <t>1,94; 174,67</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 6,92</t>
+          <t>1,25; 6,73</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,71</t>
+          <t>-0,64; 5,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 4,69</t>
+          <t>-0,53; 5,04</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,09; 8,06</t>
+          <t>0,97; 8,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,33; 524,85</t>
+          <t>23,76; 550,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,42; 286,72</t>
+          <t>-24,0; 298,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-28,93; 370,19</t>
+          <t>-27,52; 398,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,29; 193,92</t>
+          <t>9,41; 193,04</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,39; 12,79</t>
+          <t>2,39; 12,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,6; 13,08</t>
+          <t>3,27; 12,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 17,16</t>
+          <t>4,9; 16,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 14,95</t>
+          <t>3,76; 15,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,56; 478,8</t>
+          <t>49,25; 425,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>42,99; 232,54</t>
+          <t>37,36; 224,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>78,35; 538,06</t>
+          <t>87,33; 591,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>45,67; 729,51</t>
+          <t>43,2; 815,81</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,34</t>
+          <t>2,8; 7,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,44; 8,96</t>
+          <t>3,57; 9,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 7,24</t>
+          <t>2,87; 7,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,43</t>
+          <t>-2,23; 6,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>74,01; 280,9</t>
+          <t>72,0; 287,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,04; 236,66</t>
+          <t>63,74; 246,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>65,44; 259,84</t>
+          <t>66,11; 283,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,01; 116,03</t>
+          <t>-25,55; 121,41</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 7,8</t>
+          <t>1,25; 7,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 14,66</t>
+          <t>8,59; 14,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,97; 14,01</t>
+          <t>7,98; 14,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,17</t>
+          <t>2,56; 10,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>13,2; 254,11</t>
+          <t>11,54; 256,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>173,77; 646,91</t>
+          <t>171,93; 691,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>138,39; 458,42</t>
+          <t>132,31; 463,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>30,95; 185,5</t>
+          <t>29,72; 172,55</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 6,83</t>
+          <t>2,11; 6,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,5; 14,04</t>
+          <t>9,46; 13,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,41; 12,14</t>
+          <t>7,61; 12,39</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 10,49</t>
+          <t>1,28; 10,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,25; 613,1</t>
+          <t>39,61; 646,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>489,0; —</t>
+          <t>410,04; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>166,0; 2935,84</t>
+          <t>216,74; 3170,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,68; 352,36</t>
+          <t>8,08; 351,77</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,67</t>
+          <t>3,27; 5,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 8,69</t>
+          <t>5,98; 8,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,67; 8,12</t>
+          <t>5,67; 8,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,35</t>
+          <t>3,48; 7,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>98,01; 208,16</t>
+          <t>92,62; 207,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>128,5; 236,45</t>
+          <t>126,37; 240,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>149,78; 288,37</t>
+          <t>154,26; 298,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>60,23; 155,97</t>
+          <t>60,99; 159,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P1423-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1423-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
